--- a/ETL_Plan/ETL_Netflix_Major.xlsx
+++ b/ETL_Plan/ETL_Netflix_Major.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylagelev/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylagelev/Desktop/ETL_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4C1424-A210-BC4D-A6C4-19DE8B222601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB00319-068E-834C-A590-9906DC337B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="500" windowWidth="20600" windowHeight="16620" xr2:uid="{80AA07B2-1E46-B14B-967C-155697B66FE5}"/>
+    <workbookView xWindow="1460" yWindow="1380" windowWidth="20600" windowHeight="16620" xr2:uid="{80AA07B2-1E46-B14B-967C-155697B66FE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
   <si>
     <t>Target:</t>
   </si>
@@ -216,28 +216,49 @@
     <t>Passthrough</t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Release_Year</t>
-  </si>
-  <si>
-    <t>Target_Age_Bracket</t>
-  </si>
-  <si>
-    <t>IMDb_Rating</t>
-  </si>
-  <si>
-    <t>Rotten_Tomatoes</t>
-  </si>
-  <si>
-    <t>Date_Added</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>Rating</t>
+    <t>Table Level Rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movies_all_streaming and netflix_title.csv merged individually from tv_shows_all_streaming.csv </t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>tv_shows_all_streaming.csv and netflix_title.csv merged individually from movies_all_streaming.csv and netflix_title.csv</t>
+  </si>
+  <si>
+    <t>final merge involved newly made tables (movieMerge and tvshowMerge) from the above merges</t>
+  </si>
+  <si>
+    <t>Business Rules</t>
+  </si>
+  <si>
+    <t>target_age_bracket</t>
+  </si>
+  <si>
+    <t>imdb_rating</t>
+  </si>
+  <si>
+    <t>rotten_tomatoes</t>
+  </si>
+  <si>
+    <t>imdb_Rating</t>
+  </si>
+  <si>
+    <t>Drop null values</t>
+  </si>
+  <si>
+    <t>Drop column (Drop)</t>
+  </si>
+  <si>
+    <t>Filter on then Drop (merge on [title, year])</t>
   </si>
 </sst>
 </file>
@@ -604,16 +625,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C46014-B99F-224B-BA7D-875D8FE0F09A}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
@@ -633,6 +654,9 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -651,11 +675,17 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D6">
+        <v>56384</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -745,10 +775,10 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -768,10 +798,10 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -819,10 +849,10 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -842,13 +872,13 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -865,10 +895,10 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -888,10 +918,10 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -981,10 +1011,10 @@
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -1004,10 +1034,10 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -1027,10 +1057,10 @@
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1050,10 +1080,10 @@
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
         <v>55</v>
@@ -1073,10 +1103,10 @@
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1194,10 +1224,10 @@
         <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -1259,10 +1289,10 @@
         <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -1282,10 +1312,10 @@
         <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
@@ -1305,10 +1335,10 @@
         <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -1328,10 +1358,10 @@
         <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
         <v>55</v>
@@ -1351,10 +1381,10 @@
         <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -1428,6 +1458,56 @@
       </c>
       <c r="D53" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
